--- a/biology/Botanique/Boletellus_emodensis/Boletellus_emodensis.xlsx
+++ b/biology/Botanique/Boletellus_emodensis/Boletellus_emodensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet chrysanthème
 Boletellus emodensis, de son nom scientifique japonais : キクバナイグチ（Kikubana-iguchi, 菊花猪口) ou Bolet chrysanthème, est une espèce de champignons du genre Boletellus dans la famille des Boletaceae. Ce curieux champignon en forme de bouton floral, décrit pour la première fois en 1851 par le mycologue américain Miles Joseph Berkeley, avant d'être transféré dans le genre Boletellus par Rolf Singer en 1942.
@@ -512,9 +524,11 @@
           <t>Statut nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Binôme actuel : Boletellus emodensis (Berkeley) Singer (1942)[1], 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Binôme actuel : Boletellus emodensis (Berkeley) Singer (1942), 
 Basionyme : Boletus emodensis Berkeley (1851) , in W.J. Hooker, Journal of botany and Kew Garden miscellany, 3, p. 48, tab. 3  
 Principaux synonymes : 
 Strobilomyces annamiticus Pat. 1909 ;
@@ -533,7 +547,7 @@
 Boletellus annamiticus (Patouillard) E.-J. Gilbert (1931) , Les Bolets. Les livres du mycologue, 3, p. 107
 Boletellus emodensis (Berkeley) Singer (1942) , Annales mycologici, edii in notitiam scientiae mycologicae universalis, 40(1-2), p. 19  (nom actuel)
 Boletellus squamatus (Berkeley) Singer (1955) , Sydowia : Annales mycologici, editi in notitiam scientiae mycologicae universalis, series II, 9(1-6), p. 424
-Boletellus verrucarius (Berkeley) Singer (1962) [1961], Sydowia : Annales mycologici, editi in notitiam scientiae mycologicae universalis, series II, 15(1-6), p. 83</t>
+Boletellus verrucarius (Berkeley) Singer (1962) , Sydowia : Annales mycologici, editi in notitiam scientiae mycologicae universalis, series II, 15(1-6), p. 83</t>
         </is>
       </c>
     </row>
@@ -561,18 +575,20 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chapeau 5-10 cm, hémisphérique puis convexe à plan-convexe, à revêtement sec, épais et séparable, d'abord densément couvert d'un tomentum squamuleux, constitué de mèches apprimées de 2-6 mm de largeur, habituellement rouge vineux foncé, plus rarement teinté de rose (le contexte contrastant en rouge pâle à blanchâtre sale, les squames pâlissant dans la vieillesse en perdant leur tons rougeâtres pour un brun grisâtre), bientôt se fissurant, avec le déploiement du chapeau, en plaques plus ou moins grandes sur toute la surface, qui confère à l'ensemble un aspect de chrysanthème ou d'ananas (Strobilomyces). Marge appendiculée par d'importants vestiges du voile qui recouvre entièrement l'hyménophore chez le jeune[2],[3],[4].
-Chair épaisse et ferme, fibreuse dans le stipe, jaunâtre pâle, bleuissant à la coupe. Odeur nulle, saveur douce[3],[5].
-Tubes adnés, 6-12 mm, jaune citrin, bleuissants instantanément au contact de l'air. Pores 0,5-1,2 mm de diamètre, arrondis puis anguleux, citrin vif, brunissants[2].
-Stipe 7-11 x 1-2,5 cm, quasi bulbeux à la base, souvent courbe, plein, ferme, strié longitudinalement, jaune olivacé au milieu, rougeâtre aux extrémités, bleuissant au froissement. Anneau subapical épais et tenace, retroussé aux abords du stipe[2].
-Saveur  douce, odeur imperceptible[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chapeau 5-10 cm, hémisphérique puis convexe à plan-convexe, à revêtement sec, épais et séparable, d'abord densément couvert d'un tomentum squamuleux, constitué de mèches apprimées de 2-6 mm de largeur, habituellement rouge vineux foncé, plus rarement teinté de rose (le contexte contrastant en rouge pâle à blanchâtre sale, les squames pâlissant dans la vieillesse en perdant leur tons rougeâtres pour un brun grisâtre), bientôt se fissurant, avec le déploiement du chapeau, en plaques plus ou moins grandes sur toute la surface, qui confère à l'ensemble un aspect de chrysanthème ou d'ananas (Strobilomyces). Marge appendiculée par d'importants vestiges du voile qui recouvre entièrement l'hyménophore chez le jeune.
+Chair épaisse et ferme, fibreuse dans le stipe, jaunâtre pâle, bleuissant à la coupe. Odeur nulle, saveur douce,.
+Tubes adnés, 6-12 mm, jaune citrin, bleuissants instantanément au contact de l'air. Pores 0,5-1,2 mm de diamètre, arrondis puis anguleux, citrin vif, brunissants.
+Stipe 7-11 x 1-2,5 cm, quasi bulbeux à la base, souvent courbe, plein, ferme, strié longitudinalement, jaune olivacé au milieu, rougeâtre aux extrémités, bleuissant au froissement. Anneau subapical épais et tenace, retroussé aux abords du stipe.
+Saveur  douce, odeur imperceptible.
 Spores 0-24 x 8,5-12,5 µm, ellipsoïdes, striées de rainures longitudinales ou obliques.
-Habitat : Sous feuillus, chênes, pins. Himalaya, Inde, Chine, Malaisie, Bornéo, Nouvelle Guinée. Au Japon (Honshu, Shikoku et Kyûshu), vient en été et automne dans les bois mêlés de Pinus-Quercus, Abies-Castanopsis ou Castanopsis, généralement à terre, parfois sur branches mortes ou troncs vivants de Quercus et Cryptomeria (à moins d'1 m de hauteur), rarement sur les rochers moussus[2],[6].
+Habitat : Sous feuillus, chênes, pins. Himalaya, Inde, Chine, Malaisie, Bornéo, Nouvelle Guinée. Au Japon (Honshu, Shikoku et Kyûshu), vient en été et automne dans les bois mêlés de Pinus-Quercus, Abies-Castanopsis ou Castanopsis, généralement à terre, parfois sur branches mortes ou troncs vivants de Quercus et Cryptomeria (à moins d'1 m de hauteur), rarement sur les rochers moussus,.
 Comestibilité : Donné comme comestible à l'état jeune.
 Références bibliographiques : IH1 507 ; IOH p. 350 ; BMBDS 116 p. 13 ; BSMF 25 p. 6 (sub. nom. Strobilomyces annamiticus Pat. 1909) ;
-Commentaires : Plusieurs espèces très affines ont été décrites en zone subtropicale, notamment Boletellus ananas, du sud de l'Amérique du Nord, mais le bolet chrysanthème se distingue par ses tons vineux dans le chapeau et le stipe, et une spore plus grande[3].
+Commentaires : Plusieurs espèces très affines ont été décrites en zone subtropicale, notamment Boletellus ananas, du sud de l'Amérique du Nord, mais le bolet chrysanthème se distingue par ses tons vineux dans le chapeau et le stipe, et une spore plus grande.
 Une variété à squames plus petites et chair jaune vif a été signalée dans l'ouest de Honshu par Nagasawa en 1987.
 </t>
         </is>
